--- a/level-2/hackerearth-phase-2-linear-data-structures/hackerearth-phase-2-linear-data-structures.xlsx
+++ b/level-2/hackerearth-phase-2-linear-data-structures/hackerearth-phase-2-linear-data-structures.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119ABB7-9FB5-4D84-AF52-148CAB4D7FCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7CF732-0910-4395-AEC3-1A5E4DB006E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level 2 - data structures" sheetId="14" r:id="rId1"/>
@@ -603,6 +603,15 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,35 +639,12 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1128,78 +1114,78 @@
     <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f>AVERAGE(C4:C176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H176)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1228,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1248,7 +1234,7 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1269,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1290,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1307,11 +1293,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H53" si="0">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1328,11 +1314,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1349,11 +1335,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1370,11 +1356,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1391,11 +1377,11 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1412,11 +1398,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1433,11 +1419,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1454,11 +1440,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1475,11 +1461,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1496,11 +1482,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1517,11 +1503,11 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1538,11 +1524,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1559,11 +1545,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1580,11 +1566,11 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1601,11 +1587,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1622,11 +1608,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1643,11 +1629,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1664,11 +1650,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1685,11 +1671,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1706,11 +1692,11 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1727,11 +1713,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1748,11 +1734,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1769,11 +1755,11 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1790,11 +1776,11 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1811,11 +1797,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1832,11 +1818,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1853,11 +1839,11 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1874,11 +1860,11 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1895,11 +1881,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1916,11 +1902,11 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1937,11 +1923,11 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1958,11 +1944,11 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1979,11 +1965,11 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2000,11 +1986,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2021,11 +2007,11 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2042,11 +2028,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2063,11 +2049,11 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2084,11 +2070,11 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2105,11 +2091,11 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2126,11 +2112,11 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2147,11 +2133,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2168,11 +2154,11 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="20" t="s">
+      <c r="J49" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2189,11 +2175,11 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2210,20 +2196,20 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2231,41 +2217,41 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="20" t="s">
-        <v>59</v>
+      <c r="J52" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="20" t="s">
-        <v>60</v>
+      <c r="J53" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2273,20 +2259,20 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H54:H118" si="1">SUM(C54:G54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="20" t="s">
-        <v>61</v>
+      <c r="J54" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2298,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="20" t="s">
-        <v>62</v>
+      <c r="J55" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2318,17 +2304,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="20" t="s">
-        <v>63</v>
+      <c r="J56" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2339,38 +2324,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="20" t="s">
-        <v>64</v>
+      <c r="J57" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="20" t="s">
-        <v>65</v>
+      <c r="J58" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2381,38 +2364,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="20" t="s">
-        <v>66</v>
+      <c r="J59" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="20" t="s">
-        <v>67</v>
+      <c r="J60" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2423,56 +2404,53 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="20" t="s">
-        <v>68</v>
+      <c r="J61" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="20" t="s">
-        <v>69</v>
+      <c r="J62" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="20" t="s">
-        <v>70</v>
+      <c r="J63" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>2</v>
@@ -2486,14 +2464,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="20" t="s">
-        <v>71</v>
+      <c r="J64" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>2</v>
@@ -2507,14 +2484,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="20" t="s">
-        <v>72</v>
+      <c r="J65" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
@@ -2528,35 +2504,33 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="20" t="s">
-        <v>73</v>
+      <c r="J66" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="20" t="s">
-        <v>74</v>
+      <c r="J67" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>2</v>
@@ -2570,14 +2544,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="20" t="s">
-        <v>75</v>
+      <c r="J68" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>2</v>
@@ -2591,17 +2564,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="20" t="s">
-        <v>76</v>
+      <c r="J69" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -2609,41 +2581,41 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="20" t="s">
-        <v>78</v>
+      <c r="J70" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(C71:G71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="20" t="s">
-        <v>79</v>
+      <c r="J71" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2651,20 +2623,20 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="7">
-        <f t="shared" ref="H72:H118" si="2">SUM(C72:G72)</f>
+        <f>SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="20" t="s">
-        <v>80</v>
+      <c r="J72" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -2672,20 +2644,20 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="7">
-        <f t="shared" si="2"/>
+        <f>SUM(C73:G73)</f>
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="20" t="s">
-        <v>81</v>
+      <c r="J73" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2693,19 +2665,20 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="21" t="s">
-        <v>82</v>
+        <f>SUM(C74:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2713,39 +2686,41 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="21" t="s">
-        <v>83</v>
+        <f>SUM(C75:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="21" t="s">
-        <v>84</v>
+        <f>SUM(C76:G76)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2753,39 +2728,41 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="21" t="s">
-        <v>85</v>
+        <f>SUM(C77:G77)</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="21" t="s">
-        <v>86</v>
+        <f>SUM(C78:G78)</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2793,56 +2770,59 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="21" t="s">
-        <v>87</v>
+        <f>SUM(C79:G79)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="21" t="s">
-        <v>88</v>
+        <f>SUM(C80:G80)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="21" t="s">
-        <v>89</v>
+        <f>SUM(C81:G81)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>2</v>
@@ -2853,16 +2833,17 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="21" t="s">
-        <v>90</v>
+        <f>SUM(C82:G82)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>2</v>
@@ -2873,16 +2854,17 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="21" t="s">
-        <v>91</v>
+        <f>SUM(C83:G83)</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
@@ -2893,36 +2875,38 @@
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="21" t="s">
-        <v>92</v>
+        <f>SUM(C84:G84)</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="21" t="s">
-        <v>93</v>
+        <f>SUM(C85:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>2</v>
@@ -2933,16 +2917,17 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="21" t="s">
-        <v>94</v>
+        <f>SUM(C86:G86)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>2</v>
@@ -2953,11 +2938,12 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="21" t="s">
-        <v>95</v>
+        <f>SUM(C87:G87)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2973,10 +2959,10 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2993,10 +2979,10 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3013,10 +2999,10 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3033,10 +3019,10 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3053,10 +3039,10 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3073,10 +3059,10 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3093,10 +3079,10 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3113,10 +3099,10 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3133,10 +3119,10 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3153,10 +3139,10 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3173,10 +3159,10 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3193,10 +3179,10 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3213,10 +3199,10 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="12" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3233,10 +3219,10 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="12" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3253,10 +3239,10 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3273,10 +3259,10 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3293,10 +3279,10 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3313,10 +3299,10 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3333,10 +3319,10 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3353,10 +3339,10 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3373,10 +3359,10 @@
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="12" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3393,10 +3379,10 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3413,10 +3399,10 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3433,10 +3419,10 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3453,10 +3439,10 @@
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3473,10 +3459,10 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="12" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3493,10 +3479,10 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3513,10 +3499,10 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="12" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3533,10 +3519,10 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3553,10 +3539,10 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3573,10 +3559,10 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="12" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3589,7 +3575,7 @@
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="7"/>
-      <c r="J119" s="21"/>
+      <c r="J119" s="12"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
@@ -3600,7 +3586,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="7"/>
-      <c r="J120" s="21"/>
+      <c r="J120" s="12"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
@@ -3611,7 +3597,7 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="7"/>
-      <c r="J121" s="21"/>
+      <c r="J121" s="12"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
@@ -3622,7 +3608,7 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="7"/>
-      <c r="J122" s="21"/>
+      <c r="J122" s="12"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
@@ -3633,7 +3619,7 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="7"/>
-      <c r="J123" s="21"/>
+      <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
@@ -3644,7 +3630,7 @@
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="7"/>
-      <c r="J124" s="21"/>
+      <c r="J124" s="12"/>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
@@ -3655,7 +3641,7 @@
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="7"/>
-      <c r="J125" s="21"/>
+      <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
@@ -3666,7 +3652,7 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="7"/>
-      <c r="J126" s="21"/>
+      <c r="J126" s="12"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
@@ -3677,7 +3663,7 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="7"/>
-      <c r="J127" s="21"/>
+      <c r="J127" s="12"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
@@ -3688,7 +3674,7 @@
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="7"/>
-      <c r="J128" s="21"/>
+      <c r="J128" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
@@ -3699,7 +3685,7 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="7"/>
-      <c r="J129" s="21"/>
+      <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
@@ -3710,7 +3696,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="7"/>
-      <c r="J130" s="21"/>
+      <c r="J130" s="12"/>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
@@ -3721,7 +3707,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="7"/>
-      <c r="J131" s="21"/>
+      <c r="J131" s="12"/>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
@@ -3732,7 +3718,7 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="7"/>
-      <c r="J132" s="21"/>
+      <c r="J132" s="12"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
@@ -3743,7 +3729,7 @@
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="7"/>
-      <c r="J133" s="21"/>
+      <c r="J133" s="12"/>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
@@ -3754,7 +3740,7 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="7"/>
-      <c r="J134" s="21"/>
+      <c r="J134" s="12"/>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
@@ -3765,7 +3751,7 @@
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="7"/>
-      <c r="J135" s="21"/>
+      <c r="J135" s="12"/>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
@@ -3776,7 +3762,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="7"/>
-      <c r="J136" s="21"/>
+      <c r="J136" s="12"/>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
@@ -3787,7 +3773,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="7"/>
-      <c r="J137" s="21"/>
+      <c r="J137" s="12"/>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
@@ -3798,7 +3784,7 @@
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="7"/>
-      <c r="J138" s="21"/>
+      <c r="J138" s="12"/>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
@@ -3809,7 +3795,7 @@
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="7"/>
-      <c r="J139" s="21"/>
+      <c r="J139" s="12"/>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
@@ -3820,7 +3806,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="7"/>
-      <c r="J140" s="21"/>
+      <c r="J140" s="12"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
@@ -3831,7 +3817,7 @@
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="7"/>
-      <c r="J141" s="21"/>
+      <c r="J141" s="12"/>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
@@ -3842,7 +3828,7 @@
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="7"/>
-      <c r="J142" s="21"/>
+      <c r="J142" s="12"/>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
@@ -3853,7 +3839,7 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="7"/>
-      <c r="J143" s="21"/>
+      <c r="J143" s="12"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
@@ -3864,7 +3850,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7"/>
-      <c r="J144" s="21"/>
+      <c r="J144" s="12"/>
     </row>
     <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
@@ -4158,98 +4144,88 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26 I52:J53 I81:J87">
+    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+  <conditionalFormatting sqref="J81:J83">
+    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+  <conditionalFormatting sqref="J84">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="11" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+  <conditionalFormatting sqref="J54">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+  <conditionalFormatting sqref="J54">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="I81:I83">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="I84">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="I53">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
